--- a/sample_insert_rows.xlsx
+++ b/sample_insert_rows.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,12 +427,12 @@
           <t>번호</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>영어</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
@@ -442,10 +442,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="F2" t="n">
         <v>80</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>93</v>
       </c>
     </row>
@@ -453,10 +453,10 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="F3" t="n">
         <v>30</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -464,10 +464,10 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="F4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
+      <c r="G4" t="n">
         <v>62</v>
       </c>
     </row>
@@ -475,10 +475,10 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="F5" t="n">
         <v>91</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>59</v>
       </c>
     </row>
@@ -486,10 +486,10 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="F6" t="n">
         <v>22</v>
       </c>
-      <c r="C6" t="n">
+      <c r="G6" t="n">
         <v>83</v>
       </c>
     </row>
@@ -497,54 +497,54 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="F7" t="n">
         <v>71</v>
       </c>
-      <c r="C7" t="n">
+      <c r="G7" t="n">
         <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>68</v>
+      <c r="F9" t="n">
+        <v>52</v>
+      </c>
+      <c r="G9" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>52</v>
-      </c>
-      <c r="C10" t="n">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>47</v>
+      </c>
+      <c r="G10" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>47</v>
-      </c>
-      <c r="C11" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="F11" t="n">
         <v>36</v>
       </c>
-      <c r="C12" t="n">
+      <c r="G11" t="n">
         <v>13</v>
       </c>
     </row>
